--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -1,55 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vignesh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tracker\Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848FA329-0971-4AEA-9342-B71A57385C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C8497E-4DE8-4DBB-95AB-8F98F255CA44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
-    <sheet name="General-projects" sheetId="2" r:id="rId2"/>
-    <sheet name="Terraform-AWS" sheetId="3" r:id="rId3"/>
-    <sheet name="Terraform-GCP" sheetId="4" r:id="rId4"/>
-    <sheet name="Terraform-Azure" sheetId="5" r:id="rId5"/>
-    <sheet name="Jenkins" sheetId="6" r:id="rId6"/>
-    <sheet name="Ansible" sheetId="7" r:id="rId7"/>
-    <sheet name="Docker" sheetId="8" r:id="rId8"/>
-    <sheet name="Git" sheetId="9" r:id="rId9"/>
-    <sheet name="Kubernetes" sheetId="10" r:id="rId10"/>
-    <sheet name="argocd" sheetId="11" r:id="rId11"/>
-    <sheet name="Azurepipleine" sheetId="12" r:id="rId12"/>
-    <sheet name="Github-Action" sheetId="13" r:id="rId13"/>
-    <sheet name="Bitbucket" sheetId="14" r:id="rId14"/>
-    <sheet name="Gitlab" sheetId="15" r:id="rId15"/>
-    <sheet name="Python" sheetId="16" r:id="rId16"/>
-    <sheet name="dotnet" sheetId="17" r:id="rId17"/>
-    <sheet name="Java" sheetId="18" r:id="rId18"/>
-    <sheet name="vault" sheetId="19" r:id="rId19"/>
-    <sheet name="Teamcity" sheetId="20" r:id="rId20"/>
-    <sheet name="Travis" sheetId="21" r:id="rId21"/>
-    <sheet name="Gradle" sheetId="22" r:id="rId22"/>
-    <sheet name="Puppet" sheetId="23" r:id="rId23"/>
-    <sheet name="Circle-CI" sheetId="24" r:id="rId24"/>
-    <sheet name="NewRelic" sheetId="25" r:id="rId25"/>
-    <sheet name="Pagerduty" sheetId="26" r:id="rId26"/>
-    <sheet name="Pulumi" sheetId="27" r:id="rId27"/>
-    <sheet name="Chef" sheetId="28" r:id="rId28"/>
-    <sheet name="Bash" sheetId="29" r:id="rId29"/>
-    <sheet name="Automation" sheetId="30" r:id="rId30"/>
+    <sheet name="MLOPS" sheetId="31" r:id="rId2"/>
+    <sheet name="AIOPS" sheetId="32" r:id="rId3"/>
+    <sheet name="General-projects" sheetId="2" r:id="rId4"/>
+    <sheet name="Terraform-AWS" sheetId="3" r:id="rId5"/>
+    <sheet name="Terraform-GCP" sheetId="4" r:id="rId6"/>
+    <sheet name="Terraform-Azure" sheetId="5" r:id="rId7"/>
+    <sheet name="Jenkins" sheetId="6" r:id="rId8"/>
+    <sheet name="Ansible" sheetId="7" r:id="rId9"/>
+    <sheet name="Docker" sheetId="8" r:id="rId10"/>
+    <sheet name="Git" sheetId="9" r:id="rId11"/>
+    <sheet name="Kubernetes" sheetId="10" r:id="rId12"/>
+    <sheet name="argocd" sheetId="11" r:id="rId13"/>
+    <sheet name="Azurepipleine" sheetId="12" r:id="rId14"/>
+    <sheet name="Github-Action" sheetId="13" r:id="rId15"/>
+    <sheet name="Bitbucket" sheetId="14" r:id="rId16"/>
+    <sheet name="Gitlab" sheetId="15" r:id="rId17"/>
+    <sheet name="Python" sheetId="16" r:id="rId18"/>
+    <sheet name="dotnet" sheetId="17" r:id="rId19"/>
+    <sheet name="Java" sheetId="18" r:id="rId20"/>
+    <sheet name="vault" sheetId="19" r:id="rId21"/>
+    <sheet name="Teamcity" sheetId="20" r:id="rId22"/>
+    <sheet name="Travis" sheetId="21" r:id="rId23"/>
+    <sheet name="Gradle" sheetId="22" r:id="rId24"/>
+    <sheet name="Puppet" sheetId="23" r:id="rId25"/>
+    <sheet name="Circle-CI" sheetId="24" r:id="rId26"/>
+    <sheet name="NewRelic" sheetId="25" r:id="rId27"/>
+    <sheet name="Pagerduty" sheetId="26" r:id="rId28"/>
+    <sheet name="Pulumi" sheetId="27" r:id="rId29"/>
+    <sheet name="Chef" sheetId="28" r:id="rId30"/>
+    <sheet name="Bash" sheetId="29" r:id="rId31"/>
+    <sheet name="Automation" sheetId="30" r:id="rId32"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
   <si>
     <t>Task-Name</t>
   </si>
@@ -421,6 +423,9 @@
   </si>
   <si>
     <t>Az</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -1278,6 +1283,52 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1297,7 +1348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1317,7 +1368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1337,7 +1388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1363,7 +1414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1383,7 +1434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1403,7 +1454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1423,7 +1474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1443,7 +1494,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA506B91-458E-4441-8496-0E7E27800D56}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1463,7 +1526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1483,7 +1546,222 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82A8B0-6BB2-41B7-AA59-C589CAB8AD2C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F258F64E-B70C-4D30-B739-727AED231C53}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -1536,197 +1814,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2987,19 +3080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F258F64E-B70C-4D30-B739-727AED231C53}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -3050,7 +3131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -3101,7 +3182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -3196,7 +3277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3214,50 +3295,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tracker\Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C8497E-4DE8-4DBB-95AB-8F98F255CA44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F798ED3A-6452-41AB-A090-E33AB4E1111E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="125">
   <si>
     <t>Task-Name</t>
   </si>
@@ -432,11 +432,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -568,8 +575,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +653,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -823,86 +843,91 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="20" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" xfId="20" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" xfId="20" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" xfId="20" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" xfId="20" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="11" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="12" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
+    <cellStyle name="60% - Accent4" xfId="21" builtinId="44"/>
     <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Accent 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Accent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -925,7 +950,12 @@
     <cellStyle name="Text" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Warning" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1263,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -1284,17 +1314,50 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:F1">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1766,7 +1829,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1802,7 +1865,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1818,7 +1881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -3068,7 +3131,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3119,7 +3182,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3170,7 +3233,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3265,7 +3328,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
